--- a/Code/Results/Cases/Case_5_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_146/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567322799553722</v>
+        <v>0.9476458981920928</v>
       </c>
       <c r="C2">
-        <v>0.6403844818222808</v>
+        <v>0.1719206942726146</v>
       </c>
       <c r="D2">
-        <v>0.3340049599324288</v>
+        <v>0.1443690170295326</v>
       </c>
       <c r="E2">
-        <v>0.2010331850242295</v>
+        <v>0.09112395411323604</v>
       </c>
       <c r="F2">
-        <v>6.51812376729805</v>
+        <v>3.037772572775197</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9904599414115367</v>
+        <v>0.3725926983130634</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192816826049068</v>
+        <v>0.8641610323120972</v>
       </c>
       <c r="C3">
-        <v>0.5462845433521863</v>
+        <v>0.1504687380920871</v>
       </c>
       <c r="D3">
-        <v>0.2945346180771509</v>
+        <v>0.1336508942510051</v>
       </c>
       <c r="E3">
-        <v>0.1739465713804478</v>
+        <v>0.08435741998354018</v>
       </c>
       <c r="F3">
-        <v>5.688664823310972</v>
+        <v>2.820701146081149</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8469051482029286</v>
+        <v>0.3392264900062685</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969304830060736</v>
+        <v>0.8137861859623285</v>
       </c>
       <c r="C4">
-        <v>0.4901942494324487</v>
+        <v>0.1374226980942126</v>
       </c>
       <c r="D4">
-        <v>0.2709809819062201</v>
+        <v>0.1270718285175718</v>
       </c>
       <c r="E4">
-        <v>0.1578073641478284</v>
+        <v>0.08024515227905482</v>
       </c>
       <c r="F4">
-        <v>5.193410502040308</v>
+        <v>2.688233000857053</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7612921904015124</v>
+        <v>0.3190326487632902</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.879585232495003</v>
+        <v>0.7934772783991946</v>
       </c>
       <c r="C5">
-        <v>0.4676879109448748</v>
+        <v>0.132136802423247</v>
       </c>
       <c r="D5">
-        <v>0.2615254139069094</v>
+        <v>0.1243906508101418</v>
       </c>
       <c r="E5">
-        <v>0.1513353218761182</v>
+        <v>0.0785796964358525</v>
       </c>
       <c r="F5">
-        <v>4.994570983839736</v>
+        <v>2.634446044827286</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7269407113842519</v>
+        <v>0.3108757524015218</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.864762837467367</v>
+        <v>0.7901181458481688</v>
       </c>
       <c r="C6">
-        <v>0.4639699749488102</v>
+        <v>0.1312608921788012</v>
       </c>
       <c r="D6">
-        <v>0.2599631721232498</v>
+        <v>0.1239454154905673</v>
       </c>
       <c r="E6">
-        <v>0.1502664640644298</v>
+        <v>0.07830376266257844</v>
       </c>
       <c r="F6">
-        <v>4.961719020888694</v>
+        <v>2.625526243975685</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7212663909488981</v>
+        <v>0.3095256281440086</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968089634393493</v>
+        <v>0.8135114095486244</v>
       </c>
       <c r="C7">
-        <v>0.4898893904727686</v>
+        <v>0.1373512887144557</v>
       </c>
       <c r="D7">
-        <v>0.2708529182432642</v>
+        <v>0.1270356706801294</v>
       </c>
       <c r="E7">
-        <v>0.1577196788981681</v>
+        <v>0.08022264999094375</v>
       </c>
       <c r="F7">
-        <v>5.190717493021737</v>
+        <v>2.687506835130364</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7608268650671306</v>
+        <v>0.318922351340845</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.43669328973283</v>
+        <v>0.9186745346849534</v>
       </c>
       <c r="C8">
-        <v>0.6075412672169307</v>
+        <v>0.1644973286932725</v>
       </c>
       <c r="D8">
-        <v>0.3202358425852481</v>
+        <v>0.1406726273246051</v>
       </c>
       <c r="E8">
-        <v>0.1915794440844962</v>
+        <v>0.08878184398057698</v>
       </c>
       <c r="F8">
-        <v>6.228860909848976</v>
+        <v>2.962751197177795</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9403729567672912</v>
+        <v>0.3610262927193446</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.420220839856313</v>
+        <v>1.132087899232545</v>
       </c>
       <c r="C9">
-        <v>0.8555642638527274</v>
+        <v>0.218779793981895</v>
       </c>
       <c r="D9">
-        <v>0.4239881147744029</v>
+        <v>0.1674595635140577</v>
       </c>
       <c r="E9">
-        <v>0.2628817578614786</v>
+        <v>0.1059191192272593</v>
       </c>
       <c r="F9">
-        <v>8.404953572649731</v>
+        <v>3.509445478715321</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.317827578950869</v>
+        <v>0.4459890776067965</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205059692867167</v>
+        <v>1.293515007262158</v>
       </c>
       <c r="C10">
-        <v>1.055014523893163</v>
+        <v>0.2593791426511416</v>
       </c>
       <c r="D10">
-        <v>0.5069578932666161</v>
+        <v>0.187210288750066</v>
       </c>
       <c r="E10">
-        <v>0.3199365437949879</v>
+        <v>0.118748732103505</v>
       </c>
       <c r="F10">
-        <v>10.13775005213822</v>
+        <v>3.916036404187423</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.619540956318687</v>
+        <v>0.50997893781269</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.582235339107513</v>
+        <v>1.368014845915297</v>
       </c>
       <c r="C11">
-        <v>1.151444947855083</v>
+        <v>0.278022386117442</v>
       </c>
       <c r="D11">
-        <v>0.5468937853428883</v>
+        <v>0.1962201569249089</v>
       </c>
       <c r="E11">
-        <v>0.347389471159012</v>
+        <v>0.1246424250082967</v>
       </c>
       <c r="F11">
-        <v>10.96904575498553</v>
+        <v>4.102233106722736</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.764681485956174</v>
+        <v>0.5394539449726494</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.728671303095609</v>
+        <v>1.396383658376237</v>
       </c>
       <c r="C12">
-        <v>1.188992628595599</v>
+        <v>0.2851085723090137</v>
       </c>
       <c r="D12">
-        <v>0.5624095337823576</v>
+        <v>0.1996363256629934</v>
       </c>
       <c r="E12">
-        <v>0.3580524465233026</v>
+        <v>0.1268828873086179</v>
       </c>
       <c r="F12">
-        <v>11.29150870771605</v>
+        <v>4.17293092655774</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.821055196511352</v>
+        <v>0.5506698174898474</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.696960108697397</v>
+        <v>1.390266863196246</v>
       </c>
       <c r="C13">
-        <v>1.18085624532489</v>
+        <v>0.2835812401041835</v>
       </c>
       <c r="D13">
-        <v>0.5590490345170451</v>
+        <v>0.1989003887631213</v>
       </c>
       <c r="E13">
-        <v>0.355743149084212</v>
+        <v>0.1263999727388665</v>
       </c>
       <c r="F13">
-        <v>11.22169218015699</v>
+        <v>4.157696289548142</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.808846170469039</v>
+        <v>0.5482518343006717</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.594205740234827</v>
+        <v>1.370345588116095</v>
       </c>
       <c r="C14">
-        <v>1.154511944143678</v>
+        <v>0.2786048342753702</v>
       </c>
       <c r="D14">
-        <v>0.5481618922444795</v>
+        <v>0.1965011163645443</v>
       </c>
       <c r="E14">
-        <v>0.3482610275146598</v>
+        <v>0.1248265736015455</v>
       </c>
       <c r="F14">
-        <v>10.99541157538704</v>
+        <v>4.108045601822823</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.769289258678896</v>
+        <v>0.5403755826417722</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.531759480018025</v>
+        <v>1.358163845118895</v>
       </c>
       <c r="C15">
-        <v>1.13851680918421</v>
+        <v>0.2755601190013124</v>
       </c>
       <c r="D15">
-        <v>0.5415469773874122</v>
+        <v>0.195032077474508</v>
       </c>
       <c r="E15">
-        <v>0.3437145397217165</v>
+        <v>0.1238639591919792</v>
       </c>
       <c r="F15">
-        <v>10.8578566367936</v>
+        <v>4.077658098306017</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.74525276076136</v>
+        <v>0.5355582784262225</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.180872905401543</v>
+        <v>1.288668060711927</v>
       </c>
       <c r="C16">
-        <v>1.048844255823411</v>
+        <v>0.2581643839289143</v>
       </c>
       <c r="D16">
-        <v>0.5043983521624398</v>
+        <v>0.1866220393951892</v>
       </c>
       <c r="E16">
-        <v>0.3181767391640236</v>
+        <v>0.1183647543156212</v>
       </c>
       <c r="F16">
-        <v>10.08440813786046</v>
+        <v>3.903893859664578</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.610236750044422</v>
+        <v>0.5080601833441705</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971232549630599</v>
+        <v>1.246310498272294</v>
       </c>
       <c r="C17">
-        <v>0.9954286127731962</v>
+        <v>0.2475382572559397</v>
       </c>
       <c r="D17">
-        <v>0.4822204202979492</v>
+        <v>0.1814696997097371</v>
       </c>
       <c r="E17">
-        <v>0.3029271787290853</v>
+        <v>0.1150061561220852</v>
       </c>
       <c r="F17">
-        <v>9.621900042014829</v>
+        <v>3.797619838831224</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.529607979293417</v>
+        <v>0.4912858816138339</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.852498704201082</v>
+        <v>1.222047619935609</v>
       </c>
       <c r="C18">
-        <v>0.9652265979960077</v>
+        <v>0.2414427244915203</v>
       </c>
       <c r="D18">
-        <v>0.4696651045529734</v>
+        <v>0.1785085358092431</v>
       </c>
       <c r="E18">
-        <v>0.2942933911937757</v>
+        <v>0.1130797618720081</v>
       </c>
       <c r="F18">
-        <v>9.359823249952228</v>
+        <v>3.736609521624132</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.483955223041718</v>
+        <v>0.4816720616151429</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.812595369342262</v>
+        <v>1.213849691232724</v>
       </c>
       <c r="C19">
-        <v>0.9550845651534701</v>
+        <v>0.2393816476850361</v>
       </c>
       <c r="D19">
-        <v>0.4654464934754969</v>
+        <v>0.1775063145929181</v>
       </c>
       <c r="E19">
-        <v>0.2913923378310912</v>
+        <v>0.1124284306039556</v>
       </c>
       <c r="F19">
-        <v>9.271726262762996</v>
+        <v>3.71597200302142</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.468614657267608</v>
+        <v>0.4784228286096948</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993353459505613</v>
+        <v>1.250809146951724</v>
       </c>
       <c r="C20">
-        <v>1.00105947337309</v>
+        <v>0.2486677266165884</v>
       </c>
       <c r="D20">
-        <v>0.4845600048425922</v>
+        <v>0.1820179292715522</v>
       </c>
       <c r="E20">
-        <v>0.3045359667898921</v>
+        <v>0.1153631247576996</v>
       </c>
       <c r="F20">
-        <v>9.670716768668484</v>
+        <v>3.808920834708147</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.538114432691799</v>
+        <v>0.4930679707592702</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624282777541225</v>
+        <v>1.376192646304048</v>
       </c>
       <c r="C21">
-        <v>1.16221995928359</v>
+        <v>0.2800657982993187</v>
       </c>
       <c r="D21">
-        <v>0.5513483385753659</v>
+        <v>0.197205717692583</v>
       </c>
       <c r="E21">
-        <v>0.3504509858643985</v>
+        <v>0.1252884812070789</v>
       </c>
       <c r="F21">
-        <v>11.06165403637164</v>
+        <v>4.122623986738404</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.780867217545619</v>
+        <v>0.5426875401807365</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.058121945518792</v>
+        <v>1.459057083136486</v>
       </c>
       <c r="C22">
-        <v>1.273699713094032</v>
+        <v>0.3007407355483736</v>
       </c>
       <c r="D22">
-        <v>0.5973386248229531</v>
+        <v>0.2071573736814116</v>
       </c>
       <c r="E22">
-        <v>0.3820496859464981</v>
+        <v>0.1318258725213468</v>
       </c>
       <c r="F22">
-        <v>12.01636887705848</v>
+        <v>4.328755178232143</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.947931728769149</v>
+        <v>0.5754342946179776</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.824326087097461</v>
+        <v>1.414745303010591</v>
       </c>
       <c r="C23">
-        <v>1.213553484179215</v>
+        <v>0.2896915535639266</v>
       </c>
       <c r="D23">
-        <v>0.5725479696837397</v>
+        <v>0.201843412269767</v>
       </c>
       <c r="E23">
-        <v>0.3650189122135004</v>
+        <v>0.128331983614693</v>
       </c>
       <c r="F23">
-        <v>11.50205841707248</v>
+        <v>4.218633886059536</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.857886632907523</v>
+        <v>0.5579270984154476</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.983347068327703</v>
+        <v>1.248775030824049</v>
       </c>
       <c r="C24">
-        <v>0.9985121963031531</v>
+        <v>0.2481570513533882</v>
       </c>
       <c r="D24">
-        <v>0.4835016766742228</v>
+        <v>0.1817700716723323</v>
       </c>
       <c r="E24">
-        <v>0.3038082219704279</v>
+        <v>0.1152017252236064</v>
       </c>
       <c r="F24">
-        <v>9.648634918794556</v>
+        <v>3.803811381126224</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.534266499223875</v>
+        <v>0.4922621951016168</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.145127747361016</v>
+        <v>1.073558865653581</v>
       </c>
       <c r="C25">
-        <v>0.7860020716545364</v>
+        <v>0.2039746313485296</v>
       </c>
       <c r="D25">
-        <v>0.3949464668719145</v>
+        <v>0.1602037670672161</v>
       </c>
       <c r="E25">
-        <v>0.2429124213883469</v>
+        <v>0.1012428306904525</v>
       </c>
       <c r="F25">
-        <v>7.796754427442323</v>
+        <v>3.360735064642626</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.212176977132479</v>
+        <v>0.422736911962744</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_146/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9476458981920928</v>
+        <v>2.567322799553438</v>
       </c>
       <c r="C2">
-        <v>0.1719206942726146</v>
+        <v>0.6403844818224798</v>
       </c>
       <c r="D2">
-        <v>0.1443690170295326</v>
+        <v>0.3340049599322157</v>
       </c>
       <c r="E2">
-        <v>0.09112395411323604</v>
+        <v>0.2010331850242437</v>
       </c>
       <c r="F2">
-        <v>3.037772572775197</v>
+        <v>6.518123767298107</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3725926983130634</v>
+        <v>0.990459941411558</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8641610323120972</v>
+        <v>2.192816826049011</v>
       </c>
       <c r="C3">
-        <v>0.1504687380920871</v>
+        <v>0.5462845433521863</v>
       </c>
       <c r="D3">
-        <v>0.1336508942510051</v>
+        <v>0.2945346180769377</v>
       </c>
       <c r="E3">
-        <v>0.08435741998354018</v>
+        <v>0.173946571380462</v>
       </c>
       <c r="F3">
-        <v>2.820701146081149</v>
+        <v>5.688664823310944</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3392264900062685</v>
+        <v>0.8469051482029286</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8137861859623285</v>
+        <v>1.969304830060622</v>
       </c>
       <c r="C4">
-        <v>0.1374226980942126</v>
+        <v>0.4901942494326761</v>
       </c>
       <c r="D4">
-        <v>0.1270718285175718</v>
+        <v>0.2709809819066038</v>
       </c>
       <c r="E4">
-        <v>0.08024515227905482</v>
+        <v>0.1578073641477999</v>
       </c>
       <c r="F4">
-        <v>2.688233000857053</v>
+        <v>5.193410502040393</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3190326487632902</v>
+        <v>0.7612921904015408</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7934772783991946</v>
+        <v>1.879585232495259</v>
       </c>
       <c r="C5">
-        <v>0.132136802423247</v>
+        <v>0.4676879109447611</v>
       </c>
       <c r="D5">
-        <v>0.1243906508101418</v>
+        <v>0.2615254139069094</v>
       </c>
       <c r="E5">
-        <v>0.0785796964358525</v>
+        <v>0.1513353218761111</v>
       </c>
       <c r="F5">
-        <v>2.634446044827286</v>
+        <v>4.994570983839736</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3108757524015218</v>
+        <v>0.7269407113842519</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7901181458481688</v>
+        <v>1.864762837467168</v>
       </c>
       <c r="C6">
-        <v>0.1312608921788012</v>
+        <v>0.4639699749488102</v>
       </c>
       <c r="D6">
-        <v>0.1239454154905673</v>
+        <v>0.2599631721230367</v>
       </c>
       <c r="E6">
-        <v>0.07830376266257844</v>
+        <v>0.1502664640644298</v>
       </c>
       <c r="F6">
-        <v>2.625526243975685</v>
+        <v>4.961719020888665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3095256281440086</v>
+        <v>0.721266390948891</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8135114095486244</v>
+        <v>1.968089634393266</v>
       </c>
       <c r="C7">
-        <v>0.1373512887144557</v>
+        <v>0.4898893904724275</v>
       </c>
       <c r="D7">
-        <v>0.1270356706801294</v>
+        <v>0.2708529182433068</v>
       </c>
       <c r="E7">
-        <v>0.08022264999094375</v>
+        <v>0.1577196788982107</v>
       </c>
       <c r="F7">
-        <v>2.687506835130364</v>
+        <v>5.190717493021708</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.318922351340845</v>
+        <v>0.760826865067159</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9186745346849534</v>
+        <v>2.436693289733114</v>
       </c>
       <c r="C8">
-        <v>0.1644973286932725</v>
+        <v>0.6075412672165328</v>
       </c>
       <c r="D8">
-        <v>0.1406726273246051</v>
+        <v>0.3202358425853191</v>
       </c>
       <c r="E8">
-        <v>0.08878184398057698</v>
+        <v>0.1915794440844181</v>
       </c>
       <c r="F8">
-        <v>2.962751197177795</v>
+        <v>6.228860909848834</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3610262927193446</v>
+        <v>0.9403729567672556</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.132087899232545</v>
+        <v>3.42022083985654</v>
       </c>
       <c r="C9">
-        <v>0.218779793981895</v>
+        <v>0.8555642638527843</v>
       </c>
       <c r="D9">
-        <v>0.1674595635140577</v>
+        <v>0.4239881147744455</v>
       </c>
       <c r="E9">
-        <v>0.1059191192272593</v>
+        <v>0.2628817578613862</v>
       </c>
       <c r="F9">
-        <v>3.509445478715321</v>
+        <v>8.404953572649703</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4459890776067965</v>
+        <v>1.31782757895084</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.293515007262158</v>
+        <v>4.205059692867337</v>
       </c>
       <c r="C10">
-        <v>0.2593791426511416</v>
+        <v>1.055014523894044</v>
       </c>
       <c r="D10">
-        <v>0.187210288750066</v>
+        <v>0.5069578932663603</v>
       </c>
       <c r="E10">
-        <v>0.118748732103505</v>
+        <v>0.3199365437949879</v>
       </c>
       <c r="F10">
-        <v>3.916036404187423</v>
+        <v>10.13775005213824</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.50997893781269</v>
+        <v>1.619540956318687</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.368014845915297</v>
+        <v>4.582235339107399</v>
       </c>
       <c r="C11">
-        <v>0.278022386117442</v>
+        <v>1.151444947855055</v>
       </c>
       <c r="D11">
-        <v>0.1962201569249089</v>
+        <v>0.546893785342462</v>
       </c>
       <c r="E11">
-        <v>0.1246424250082967</v>
+        <v>0.3473894711589693</v>
       </c>
       <c r="F11">
-        <v>4.102233106722736</v>
+        <v>10.96904575498553</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5394539449726494</v>
+        <v>1.764681485956189</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.396383658376237</v>
+        <v>4.728671303095609</v>
       </c>
       <c r="C12">
-        <v>0.2851085723090137</v>
+        <v>1.188992628595599</v>
       </c>
       <c r="D12">
-        <v>0.1996363256629934</v>
+        <v>0.562409533782386</v>
       </c>
       <c r="E12">
-        <v>0.1268828873086179</v>
+        <v>0.3580524465233523</v>
       </c>
       <c r="F12">
-        <v>4.17293092655774</v>
+        <v>11.29150870771593</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5506698174898474</v>
+        <v>1.821055196511338</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.390266863196246</v>
+        <v>4.696960108696942</v>
       </c>
       <c r="C13">
-        <v>0.2835812401041835</v>
+        <v>1.18085624532489</v>
       </c>
       <c r="D13">
-        <v>0.1989003887631213</v>
+        <v>0.5590490345163914</v>
       </c>
       <c r="E13">
-        <v>0.1263999727388665</v>
+        <v>0.3557431490841978</v>
       </c>
       <c r="F13">
-        <v>4.157696289548142</v>
+        <v>11.22169218015711</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5482518343006717</v>
+        <v>1.808846170469053</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370345588116095</v>
+        <v>4.594205740235225</v>
       </c>
       <c r="C14">
-        <v>0.2786048342753702</v>
+        <v>1.15451194414328</v>
       </c>
       <c r="D14">
-        <v>0.1965011163645443</v>
+        <v>0.548161892244508</v>
       </c>
       <c r="E14">
-        <v>0.1248265736015455</v>
+        <v>0.3482610275147024</v>
       </c>
       <c r="F14">
-        <v>4.108045601822823</v>
+        <v>10.99541157538692</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5403755826417722</v>
+        <v>1.769289258678867</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.358163845118895</v>
+        <v>4.531759480018252</v>
       </c>
       <c r="C15">
-        <v>0.2755601190013124</v>
+        <v>1.138516809184182</v>
       </c>
       <c r="D15">
-        <v>0.195032077474508</v>
+        <v>0.5415469773876112</v>
       </c>
       <c r="E15">
-        <v>0.1238639591919792</v>
+        <v>0.3437145397217236</v>
       </c>
       <c r="F15">
-        <v>4.077658098306017</v>
+        <v>10.85785663679366</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5355582784262225</v>
+        <v>1.745252760761403</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.288668060711927</v>
+        <v>4.180872905401657</v>
       </c>
       <c r="C16">
-        <v>0.2581643839289143</v>
+        <v>1.048844255824747</v>
       </c>
       <c r="D16">
-        <v>0.1866220393951892</v>
+        <v>0.5043983521625819</v>
       </c>
       <c r="E16">
-        <v>0.1183647543156212</v>
+        <v>0.3181767391640022</v>
       </c>
       <c r="F16">
-        <v>3.903893859664578</v>
+        <v>10.08440813786063</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5080601833441705</v>
+        <v>1.610236750044422</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.246310498272294</v>
+        <v>3.971232549630258</v>
       </c>
       <c r="C17">
-        <v>0.2475382572559397</v>
+        <v>0.9954286127735941</v>
       </c>
       <c r="D17">
-        <v>0.1814696997097371</v>
+        <v>0.4822204202976934</v>
       </c>
       <c r="E17">
-        <v>0.1150061561220852</v>
+        <v>0.3029271787291989</v>
       </c>
       <c r="F17">
-        <v>3.797619838831224</v>
+        <v>9.621900042014829</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4912858816138339</v>
+        <v>1.529607979293459</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.222047619935609</v>
+        <v>3.852498704201196</v>
       </c>
       <c r="C18">
-        <v>0.2414427244915203</v>
+        <v>0.9652265979963488</v>
       </c>
       <c r="D18">
-        <v>0.1785085358092431</v>
+        <v>0.4696651045522913</v>
       </c>
       <c r="E18">
-        <v>0.1130797618720081</v>
+        <v>0.2942933911938042</v>
       </c>
       <c r="F18">
-        <v>3.736609521624132</v>
+        <v>9.359823249952314</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4816720616151429</v>
+        <v>1.483955223041718</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.213849691232724</v>
+        <v>3.812595369342432</v>
       </c>
       <c r="C19">
-        <v>0.2393816476850361</v>
+        <v>0.9550845651537827</v>
       </c>
       <c r="D19">
-        <v>0.1775063145929181</v>
+        <v>0.465446493475639</v>
       </c>
       <c r="E19">
-        <v>0.1124284306039556</v>
+        <v>0.2913923378311551</v>
       </c>
       <c r="F19">
-        <v>3.71597200302142</v>
+        <v>9.271726262763167</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4784228286096948</v>
+        <v>1.468614657267636</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.250809146951724</v>
+        <v>3.993353459505784</v>
       </c>
       <c r="C20">
-        <v>0.2486677266165884</v>
+        <v>1.001059473373147</v>
       </c>
       <c r="D20">
-        <v>0.1820179292715522</v>
+        <v>0.4845600048419385</v>
       </c>
       <c r="E20">
-        <v>0.1153631247576996</v>
+        <v>0.3045359667898282</v>
       </c>
       <c r="F20">
-        <v>3.808920834708147</v>
+        <v>9.670716768668512</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4930679707592702</v>
+        <v>1.538114432691799</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.376192646304048</v>
+        <v>4.624282777540998</v>
       </c>
       <c r="C21">
-        <v>0.2800657982993187</v>
+        <v>1.162219959282737</v>
       </c>
       <c r="D21">
-        <v>0.197205717692583</v>
+        <v>0.5513483385755649</v>
       </c>
       <c r="E21">
-        <v>0.1252884812070789</v>
+        <v>0.3504509858643345</v>
       </c>
       <c r="F21">
-        <v>4.122623986738404</v>
+        <v>11.06165403637158</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5426875401807365</v>
+        <v>1.780867217545619</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.459057083136486</v>
+        <v>5.058121945519417</v>
       </c>
       <c r="C22">
-        <v>0.3007407355483736</v>
+        <v>1.273699713094402</v>
       </c>
       <c r="D22">
-        <v>0.2071573736814116</v>
+        <v>0.597338624822811</v>
       </c>
       <c r="E22">
-        <v>0.1318258725213468</v>
+        <v>0.3820496859465266</v>
       </c>
       <c r="F22">
-        <v>4.328755178232143</v>
+        <v>12.01636887705877</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5754342946179776</v>
+        <v>1.947931728769134</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.414745303010591</v>
+        <v>4.824326087097575</v>
       </c>
       <c r="C23">
-        <v>0.2896915535639266</v>
+        <v>1.213553484179243</v>
       </c>
       <c r="D23">
-        <v>0.201843412269767</v>
+        <v>0.5725479696837397</v>
       </c>
       <c r="E23">
-        <v>0.128331983614693</v>
+        <v>0.3650189122135217</v>
       </c>
       <c r="F23">
-        <v>4.218633886059536</v>
+        <v>11.50205841707253</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5579270984154476</v>
+        <v>1.857886632907551</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.248775030824049</v>
+        <v>3.983347068327362</v>
       </c>
       <c r="C24">
-        <v>0.2481570513533882</v>
+        <v>0.9985121963031531</v>
       </c>
       <c r="D24">
-        <v>0.1817700716723323</v>
+        <v>0.4835016766744502</v>
       </c>
       <c r="E24">
-        <v>0.1152017252236064</v>
+        <v>0.3038082219705345</v>
       </c>
       <c r="F24">
-        <v>3.803811381126224</v>
+        <v>9.648634918794585</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4922621951016168</v>
+        <v>1.534266499223847</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.073558865653581</v>
+        <v>3.145127747360903</v>
       </c>
       <c r="C25">
-        <v>0.2039746313485296</v>
+        <v>0.7860020716545364</v>
       </c>
       <c r="D25">
-        <v>0.1602037670672161</v>
+        <v>0.3949464668718718</v>
       </c>
       <c r="E25">
-        <v>0.1012428306904525</v>
+        <v>0.2429124213882545</v>
       </c>
       <c r="F25">
-        <v>3.360735064642626</v>
+        <v>7.79675442744238</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.422736911962744</v>
+        <v>1.212176977132437</v>
       </c>
       <c r="N25">
         <v>0</v>
